--- a/220112_CV/my_CV.xlsx
+++ b/220112_CV/my_CV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeitplatz\19_scopus\literature_survey\220112_CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8EB389-9E65-4B42-B9F7-2156B3275C15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93E8D77-C515-41C8-BFF6-E208819B2135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,7 +297,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.1109/TMAG.2006.880565</t>
+    <t>10.1103/PhysRevB.75.174430</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/220112_CV/my_CV.xlsx
+++ b/220112_CV/my_CV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeitplatz\19_scopus\literature_survey\220112_CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93E8D77-C515-41C8-BFF6-E208819B2135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F72AFED-674F-45B6-9D9E-6BE02CC68393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,276 +28,311 @@
     <t>TITLE_Scopus</t>
   </si>
   <si>
+    <t>10.1038/srep31513</t>
+  </si>
+  <si>
+    <t>10.1088/0957-4484/24/14/145702</t>
+  </si>
+  <si>
+    <t>10.1109/TMAG.2006.880565</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmmm.2003.12.624</t>
+  </si>
+  <si>
+    <t>First-Principles-Based Machine-Learning Molecular Dynamics for Crystalline Polymers with van der Waals Interactions</t>
+  </si>
+  <si>
+    <t>Optimizing machine learning models for granular NdFeB magnets by very fast simulated annealing</t>
+  </si>
+  <si>
+    <t>Resonant vortex-core reversal in magnetic nano-spheres as robust mechanism of efficient energy absorption and emission</t>
+  </si>
+  <si>
+    <t>Temperature effect on vortex-core reversals in magnetic nanodots</t>
+  </si>
+  <si>
+    <t>Self-assembled magnetic nanospheres with three-dimensional magnetic vortex</t>
+  </si>
+  <si>
+    <t>Magnetic microstructure of rolled-up single-layer ferromagnetic nanomembranes</t>
+  </si>
+  <si>
+    <t>Scaling dependence and tailoring of the pinning field in FePt-based exchange coupled composite media</t>
+  </si>
+  <si>
+    <t>Rolled-up permalloy nanomembranes with multiple windings</t>
+  </si>
+  <si>
+    <t>Probing the energy barriers and magnetization reversal processes of nanoperforated membrane based percolated media</t>
+  </si>
+  <si>
+    <t>Resonant amplification of vortex-core oscillations by coherent magnetic-field pulses</t>
+  </si>
+  <si>
+    <t>Fabrication and high-resolution electron microscopy study of FePt L1 &lt;inf&gt;0&lt;/inf&gt;/A1 graded exchange spring media</t>
+  </si>
+  <si>
+    <t>Understanding on coercivity behavior of M-type strontium hexaferrite through thin-film experiment and micromagnetic modeling</t>
+  </si>
+  <si>
+    <t>Direct calculation of the attempt frequency of magnetic structures using the finite element method</t>
+  </si>
+  <si>
+    <t>Radial-spin-wave-mode-assisted vortex-core magnetization reversals</t>
+  </si>
+  <si>
+    <t>Micromagnetic study of exchange spring media with a rough interface on an example of FePt films</t>
+  </si>
+  <si>
+    <t>L1 &lt;inf&gt;0&lt;/inf&gt; FePtCu bit patterned media</t>
+  </si>
+  <si>
+    <t>Calculation of coercivity of magnetic nanostructures at finite temperatures</t>
+  </si>
+  <si>
+    <t>Contribution of the easy axis orientation, anisotropy distribution and dot size on the switching field distribution of bit patterned media</t>
+  </si>
+  <si>
+    <t>FePt L1&lt;inf&gt;0&lt;/inf&gt;/A1 graded media with a rough interphase boundary</t>
+  </si>
+  <si>
+    <t>Hard/graded exchange spring composite media based on FePt</t>
+  </si>
+  <si>
+    <t>Magnetic films on nanoperforated templates: A route towards percolated perpendicular media</t>
+  </si>
+  <si>
+    <t>Validation of the transition state theory with Langevin-dynamics simulations</t>
+  </si>
+  <si>
+    <t>Modeling of the write and read back performances of hexagonal Ba-ferrite particulate media for high density tape recording</t>
+  </si>
+  <si>
+    <t>Theory and micromagnetics of pinning mechanism at cylindrical defects in perpendicular magnetic films</t>
+  </si>
+  <si>
+    <t>TEM study on diffusion process of NiFe Schottky and MgO/NiFe tunneling diodes for spin injection in silicon</t>
+  </si>
+  <si>
+    <t>Magnetic properties of graded A1/L1&lt;inf&gt;0&lt;/inf&gt; films obtained by heat treatment of FePt/CoPt multilayers</t>
+  </si>
+  <si>
+    <t>Increases in effective head field gradients in exchange spring media</t>
+  </si>
+  <si>
+    <t>Microwave-assisted three-dimensional multilayer magnetic recording</t>
+  </si>
+  <si>
+    <t>Effect of intergranular exchange on the thermal stability and coercive field of perpendicular, single phase, exchange spring, and coupled granular continuous (CGC) perpendicular recording media</t>
+  </si>
+  <si>
+    <t>Microstructural change of 2LiBH&lt;inf&gt;4&lt;/inf&gt;/Al with hydrogen sorption cycling: Separation of Al and B</t>
+  </si>
+  <si>
+    <t>Contribution of convex surfaces to magnetostatic interaction in granular medium</t>
+  </si>
+  <si>
+    <t>Grain geometry induced reversal behaviour alteration</t>
+  </si>
+  <si>
+    <t>Contribution of the shrunk interface and the convex surface of grains on magnetic behavior in granular film</t>
+  </si>
+  <si>
+    <t>Micromagnetic study of recording on ion-irradiated granular-patterned media</t>
+  </si>
+  <si>
+    <t>Reliability of Sharrocks equation for exchange spring bilayers</t>
+  </si>
+  <si>
+    <t>Contribution of local incoherency on Gilbert-damping</t>
+  </si>
+  <si>
+    <t>Si -based magnetic tunnel transistor with single CoFe base layer</t>
+  </si>
+  <si>
+    <t>Magnetization reversal process of the nanosized elliptical permalloy magnetic dots with various aspect ratios</t>
+  </si>
+  <si>
+    <t>Si-based magnetic tunnel transistor with high transfer ratio</t>
+  </si>
+  <si>
+    <t>SrFeO&lt;inf&gt;3&lt;/inf&gt; nanoparticles-dispersed SrMoO&lt;inf&gt;4&lt;/inf&gt; insulating thin films deposited from Sr&lt;inf&gt;2&lt;/inf&gt;FeMoO&lt;inf&gt;6&lt;/inf&gt; target in oxygen atmosphere</t>
+  </si>
+  <si>
+    <t>10.1038/srep11370</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resonantly exited precession motion of three-dimensional vortex core in magnetic nanospheres</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1063/1.3309417</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perpendicular FePt-based exchange-coupled composite media</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.jmmm.2008.06.041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchange-coupled perpendicular media</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.jmmm.2006.10.1137</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnetic characteristics of ferromagnetic nanotube</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1103/PhysRevB.75.174430</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>10.1021/acs.jpclett.1c01140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1038/s41598-021-83315-9</t>
-  </si>
-  <si>
-    <t>10.1038/srep31513</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.4919836</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.4903741</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1002/adma.201303003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1088/0957-4484/25/4/045604</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1142/S2010324713400018</t>
-  </si>
-  <si>
-    <t>10.1088/0957-4484/24/14/145702</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1038/srep01301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1002/pssa.201228731</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.4821821</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.4712033</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.4705690</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1088/0022-3727/45/49/495001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1088/0957-4484/23/2/025301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1103/PhysRevB.84.224421</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.3623752</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.3595307</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.3556773</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1088/0957-4484/21/49/495701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.3460639</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1016/j.jmmm.2010.08.010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.3372611</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1109/TMAG.2010.2040594</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.3275925</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.3257364</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.3152293</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1109/TMAG.2008.2002859</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1016/j.scriptamat.2009.01.031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1109/TMAG.2009.2018949</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1088/0022-3727/42/4/045005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.2833302</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1016/j.jmmm.2007.04.019</t>
-  </si>
-  <si>
-    <t>10.1109/TMAG.2006.880565</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.jmmm.2003.12.707</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1063/1.1763638</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1063/1.2126124</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmmm.2003.12.624</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmmm.2003.12.707</t>
-  </si>
-  <si>
-    <t>10.1063/1.1763638</t>
-  </si>
-  <si>
-    <t>First-Principles-Based Machine-Learning Molecular Dynamics for Crystalline Polymers with van der Waals Interactions</t>
-  </si>
-  <si>
-    <t>Optimizing machine learning models for granular NdFeB magnets by very fast simulated annealing</t>
-  </si>
-  <si>
-    <t>Resonant vortex-core reversal in magnetic nano-spheres as robust mechanism of efficient energy absorption and emission</t>
-  </si>
-  <si>
-    <t>Temperature effect on vortex-core reversals in magnetic nanodots</t>
-  </si>
-  <si>
-    <t>Self-assembled magnetic nanospheres with three-dimensional magnetic vortex</t>
-  </si>
-  <si>
-    <t>Magnetic microstructure of rolled-up single-layer ferromagnetic nanomembranes</t>
-  </si>
-  <si>
-    <t>Scaling dependence and tailoring of the pinning field in FePt-based exchange coupled composite media</t>
-  </si>
-  <si>
-    <t>Rolled-up permalloy nanomembranes with multiple windings</t>
-  </si>
-  <si>
-    <t>Probing the energy barriers and magnetization reversal processes of nanoperforated membrane based percolated media</t>
-  </si>
-  <si>
-    <t>Resonant amplification of vortex-core oscillations by coherent magnetic-field pulses</t>
-  </si>
-  <si>
-    <t>Fabrication and high-resolution electron microscopy study of FePt L1 &lt;inf&gt;0&lt;/inf&gt;/A1 graded exchange spring media</t>
-  </si>
-  <si>
-    <t>Understanding on coercivity behavior of M-type strontium hexaferrite through thin-film experiment and micromagnetic modeling</t>
-  </si>
-  <si>
-    <t>Direct calculation of the attempt frequency of magnetic structures using the finite element method</t>
-  </si>
-  <si>
-    <t>Radial-spin-wave-mode-assisted vortex-core magnetization reversals</t>
-  </si>
-  <si>
-    <t>Micromagnetic study of exchange spring media with a rough interface on an example of FePt films</t>
-  </si>
-  <si>
-    <t>L1 &lt;inf&gt;0&lt;/inf&gt; FePtCu bit patterned media</t>
-  </si>
-  <si>
-    <t>Calculation of coercivity of magnetic nanostructures at finite temperatures</t>
-  </si>
-  <si>
-    <t>Contribution of the easy axis orientation, anisotropy distribution and dot size on the switching field distribution of bit patterned media</t>
-  </si>
-  <si>
-    <t>FePt L1&lt;inf&gt;0&lt;/inf&gt;/A1 graded media with a rough interphase boundary</t>
-  </si>
-  <si>
-    <t>Hard/graded exchange spring composite media based on FePt</t>
-  </si>
-  <si>
-    <t>Magnetic films on nanoperforated templates: A route towards percolated perpendicular media</t>
-  </si>
-  <si>
-    <t>Validation of the transition state theory with Langevin-dynamics simulations</t>
-  </si>
-  <si>
-    <t>Modeling of the write and read back performances of hexagonal Ba-ferrite particulate media for high density tape recording</t>
-  </si>
-  <si>
-    <t>Theory and micromagnetics of pinning mechanism at cylindrical defects in perpendicular magnetic films</t>
-  </si>
-  <si>
-    <t>TEM study on diffusion process of NiFe Schottky and MgO/NiFe tunneling diodes for spin injection in silicon</t>
-  </si>
-  <si>
-    <t>Magnetic properties of graded A1/L1&lt;inf&gt;0&lt;/inf&gt; films obtained by heat treatment of FePt/CoPt multilayers</t>
-  </si>
-  <si>
-    <t>Increases in effective head field gradients in exchange spring media</t>
-  </si>
-  <si>
-    <t>Microwave-assisted three-dimensional multilayer magnetic recording</t>
-  </si>
-  <si>
-    <t>Effect of intergranular exchange on the thermal stability and coercive field of perpendicular, single phase, exchange spring, and coupled granular continuous (CGC) perpendicular recording media</t>
-  </si>
-  <si>
-    <t>Microstructural change of 2LiBH&lt;inf&gt;4&lt;/inf&gt;/Al with hydrogen sorption cycling: Separation of Al and B</t>
-  </si>
-  <si>
-    <t>Contribution of convex surfaces to magnetostatic interaction in granular medium</t>
-  </si>
-  <si>
-    <t>Grain geometry induced reversal behaviour alteration</t>
-  </si>
-  <si>
-    <t>Contribution of the shrunk interface and the convex surface of grains on magnetic behavior in granular film</t>
-  </si>
-  <si>
-    <t>Micromagnetic study of recording on ion-irradiated granular-patterned media</t>
-  </si>
-  <si>
-    <t>Reliability of Sharrocks equation for exchange spring bilayers</t>
-  </si>
-  <si>
-    <t>Contribution of local incoherency on Gilbert-damping</t>
-  </si>
-  <si>
-    <t>Si -based magnetic tunnel transistor with single CoFe base layer</t>
-  </si>
-  <si>
-    <t>Magnetization reversal process of the nanosized elliptical permalloy magnetic dots with various aspect ratios</t>
-  </si>
-  <si>
-    <t>Si-based magnetic tunnel transistor with high transfer ratio</t>
-  </si>
-  <si>
-    <t>SrFeO&lt;inf&gt;3&lt;/inf&gt; nanoparticles-dispersed SrMoO&lt;inf&gt;4&lt;/inf&gt; insulating thin films deposited from Sr&lt;inf&gt;2&lt;/inf&gt;FeMoO&lt;inf&gt;6&lt;/inf&gt; target in oxygen atmosphere</t>
-  </si>
-  <si>
-    <t>10.1038/srep11370</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resonantly exited precession motion of three-dimensional vortex core in magnetic nanospheres</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1063/1.3309417</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perpendicular FePt-based exchange-coupled composite media</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1016/j.jmmm.2008.06.041</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exchange-coupled perpendicular media</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1016/j.jmmm.2006.10.1137</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magnetic characteristics of ferromagnetic nanotube</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1103/PhysRevB.75.174430</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -329,12 +364,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -364,12 +405,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -710,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -729,354 +771,354 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
